--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -283,544 +283,548 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>このResourceに対する論理ID</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Immunization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Immunization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Immunization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Immunization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dueDateOfNextDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+</t>
+  </si>
+  <si>
+    <t>次回接種予定日</t>
+  </si>
+  <si>
+    <t>次回接種を予定している日、期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>manufacturedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
+</t>
+  </si>
+  <si>
+    <t>製造年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが製造された年月日</t>
+  </si>
+  <si>
+    <t>certificatedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
+</t>
+  </si>
+  <si>
+    <t>検定年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが検定された年月日</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this immunization record.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>completed | entered-in-error | not-done</t>
+  </si>
+  <si>
+    <t>予防接種記録の現在の状態を示すコード</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>予防接種の現在の状態を表すコード</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>実施しなかった理由</t>
+  </si>
+  <si>
+    <t>Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
+    <t>接種されたワクチン製剤</t>
+  </si>
+  <si>
+    <t>接種されたあるいは接種予定のワクチン。</t>
+  </si>
+  <si>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた人</t>
+  </si>
+  <si>
+    <t>予防接種を受けた，あるいは受けなかった患者。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた診察</t>
+  </si>
+  <si>
+    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日時</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>二次的に報告された記録の発生源を示す</t>
+  </si>
+  <si>
+    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した場所</t>
+  </si>
+  <si>
+    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>このResourceに対する論理ID</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Immunization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Immunization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Immunization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Immunization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Immunization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dueDateOfNextDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
-</t>
-  </si>
-  <si>
-    <t>次回接種予定日</t>
-  </si>
-  <si>
-    <t>次回接種を予定している日、期限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>manufacturedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
-</t>
-  </si>
-  <si>
-    <t>製造年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが製造された年月日</t>
-  </si>
-  <si>
-    <t>certificatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
-</t>
-  </si>
-  <si>
-    <t>検定年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが検定された年月日</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
-  </si>
-  <si>
-    <t>Immunization.status</t>
-  </si>
-  <si>
-    <t>completed | entered-in-error | not-done</t>
-  </si>
-  <si>
-    <t>予防接種記録の現在の状態を示すコード</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>予防接種の現在の状態を表すコード</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>実施しなかった理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
-    <t>接種されたワクチン製剤</t>
-  </si>
-  <si>
-    <t>接種されたあるいは接種予定のワクチン。</t>
-  </si>
-  <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた人</t>
-  </si>
-  <si>
-    <t>予防接種を受けた，あるいは受けなかった患者。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた診察</t>
-  </si>
-  <si>
-    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日時</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>二次的に報告された記録の発生源を示す</t>
-  </si>
-  <si>
-    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した場所</t>
-  </si>
-  <si>
-    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t>ワクチンのロット番号</t>
@@ -4595,13 +4599,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4670,21 +4674,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4707,13 +4711,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4764,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4782,10 +4786,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4822,10 +4826,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4855,10 +4859,10 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4894,21 +4898,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,10 +4938,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4967,10 +4971,10 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5006,21 +5010,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5043,13 +5047,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5100,7 +5104,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5118,10 +5122,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5227,13 +5231,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5267,13 +5271,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5324,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5382,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5438,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5470,11 +5474,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5496,10 +5500,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5586,7 +5590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5612,10 +5616,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5642,13 +5646,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5681,13 +5685,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5795,16 +5799,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5812,7 +5816,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5835,13 +5839,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5907,13 +5911,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5950,10 +5954,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5983,10 +5987,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6004,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6019,13 +6023,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6059,13 +6063,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6116,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6174,20 +6178,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6232,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6250,7 +6254,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,10 +6294,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6323,10 +6327,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6348,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6399,13 +6403,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6456,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6511,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6568,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6604,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6626,10 +6630,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6682,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6703,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6714,11 +6718,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6740,10 +6744,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6798,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6834,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,13 +6857,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6910,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6928,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6968,10 +6972,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7054,7 +7058,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7080,10 +7084,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7134,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7152,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7192,10 +7196,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7246,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7264,7 +7268,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7304,10 +7308,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7337,10 +7341,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7376,7 +7380,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7390,7 +7394,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7420,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7449,10 +7453,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,16 +7529,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7602,10 +7606,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7639,13 +7643,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7696,7 +7700,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7728,7 +7732,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7754,10 +7758,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7810,7 +7814,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7842,11 +7846,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7868,10 +7872,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7926,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7958,7 +7962,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7984,10 +7988,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8060,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8093,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8150,7 +8154,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8168,10 +8172,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8208,10 +8212,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8280,10 +8284,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8625,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8886,10 +8890,10 @@
         <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8940,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8998,10 +9002,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9031,10 +9035,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9052,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9084,7 +9088,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9107,16 +9111,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9166,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9221,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9280,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
